--- a/2023/02产品/SNC8x/02)Soundec产品线/01)AudioProcessor/04)落地方案/DSP后级音效处理器 迭代计划.xlsx
+++ b/2023/02产品/SNC8x/02)Soundec产品线/01)AudioProcessor/04)落地方案/DSP后级音效处理器 迭代计划.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\A0)RoutineWork\DSP后级音效处理规划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\02产品\SNC8x\02)Soundec产品线\01)AudioProcessor\04)落地方案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA49E93A-544F-4B9B-AA95-FD33E05ADB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89043FBC-B150-46BD-96CA-BA69061DC761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="开源音效算法" sheetId="2" r:id="rId2"/>
     <sheet name="第三方算法合作" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -560,33 +559,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,10 +597,10 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,88 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +650,87 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:LQ21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG27" sqref="AG27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1054,680 +1052,680 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="32">
+      <c r="C2" s="44"/>
+      <c r="D2" s="33">
         <v>2023</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="33"/>
-      <c r="BR2" s="33"/>
-      <c r="BS2" s="33"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33"/>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-      <c r="CJ2" s="33"/>
-      <c r="CK2" s="33"/>
-      <c r="CL2" s="33"/>
-      <c r="CM2" s="33"/>
-      <c r="CN2" s="33"/>
-      <c r="CO2" s="33"/>
-      <c r="CP2" s="33"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="33"/>
-      <c r="CS2" s="33"/>
-      <c r="CT2" s="33"/>
-      <c r="CU2" s="33"/>
-      <c r="CV2" s="33"/>
-      <c r="CW2" s="33"/>
-      <c r="CX2" s="33"/>
-      <c r="CY2" s="33"/>
-      <c r="CZ2" s="33"/>
-      <c r="DA2" s="33"/>
-      <c r="DB2" s="33"/>
-      <c r="DC2" s="33"/>
-      <c r="DD2" s="33"/>
-      <c r="DE2" s="33"/>
-      <c r="DF2" s="33"/>
-      <c r="DG2" s="33"/>
-      <c r="DH2" s="33"/>
-      <c r="DI2" s="33"/>
-      <c r="DJ2" s="33"/>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DQ2" s="33"/>
-      <c r="DR2" s="33"/>
-      <c r="DS2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33"/>
-      <c r="DZ2" s="33"/>
-      <c r="EA2" s="33"/>
-      <c r="EB2" s="33"/>
-      <c r="EC2" s="33"/>
-      <c r="ED2" s="33"/>
-      <c r="EE2" s="33"/>
-      <c r="EF2" s="33"/>
-      <c r="EG2" s="33"/>
-      <c r="EH2" s="33"/>
-      <c r="EI2" s="33"/>
-      <c r="EJ2" s="33"/>
-      <c r="EK2" s="33"/>
-      <c r="EL2" s="33"/>
-      <c r="EM2" s="33"/>
-      <c r="EN2" s="33"/>
-      <c r="EO2" s="33"/>
-      <c r="EP2" s="33"/>
-      <c r="EQ2" s="33"/>
-      <c r="ER2" s="33"/>
-      <c r="ES2" s="33"/>
-      <c r="ET2" s="33"/>
-      <c r="EU2" s="33"/>
-      <c r="EV2" s="33"/>
-      <c r="EW2" s="33"/>
-      <c r="EX2" s="33"/>
-      <c r="EY2" s="33"/>
-      <c r="EZ2" s="33"/>
-      <c r="FA2" s="33"/>
-      <c r="FB2" s="33"/>
-      <c r="FC2" s="33"/>
-      <c r="FD2" s="33"/>
-      <c r="FE2" s="33"/>
-      <c r="FF2" s="33"/>
-      <c r="FG2" s="33"/>
-      <c r="FH2" s="33"/>
-      <c r="FI2" s="33"/>
-      <c r="FJ2" s="33"/>
-      <c r="FK2" s="33"/>
-      <c r="FL2" s="33"/>
-      <c r="FM2" s="33"/>
-      <c r="FN2" s="33"/>
-      <c r="FO2" s="33"/>
-      <c r="FP2" s="33"/>
-      <c r="FQ2" s="33"/>
-      <c r="FR2" s="33"/>
-      <c r="FS2" s="33"/>
-      <c r="FT2" s="33"/>
-      <c r="FU2" s="33"/>
-      <c r="FV2" s="33"/>
-      <c r="FW2" s="33"/>
-      <c r="FX2" s="33"/>
-      <c r="FY2" s="33"/>
-      <c r="FZ2" s="33"/>
-      <c r="GA2" s="33"/>
-      <c r="GB2" s="33"/>
-      <c r="GC2" s="33"/>
-      <c r="GD2" s="33"/>
-      <c r="GE2" s="33"/>
-      <c r="GF2" s="33"/>
-      <c r="GG2" s="33"/>
-      <c r="GH2" s="33"/>
-      <c r="GI2" s="33"/>
-      <c r="GJ2" s="33"/>
-      <c r="GK2" s="33"/>
-      <c r="GL2" s="33"/>
-      <c r="GM2" s="33"/>
-      <c r="GN2" s="33"/>
-      <c r="GO2" s="33"/>
-      <c r="GP2" s="33"/>
-      <c r="GQ2" s="33"/>
-      <c r="GR2" s="33"/>
-      <c r="GS2" s="33"/>
-      <c r="GT2" s="33"/>
-      <c r="GU2" s="33"/>
-      <c r="GV2" s="33"/>
-      <c r="GW2" s="33"/>
-      <c r="GX2" s="33"/>
-      <c r="GY2" s="33"/>
-      <c r="GZ2" s="33"/>
-      <c r="HA2" s="33"/>
-      <c r="HB2" s="33"/>
-      <c r="HC2" s="33"/>
-      <c r="HD2" s="33"/>
-      <c r="HE2" s="33"/>
-      <c r="HF2" s="33"/>
-      <c r="HG2" s="33"/>
-      <c r="HH2" s="33"/>
-      <c r="HI2" s="33"/>
-      <c r="HJ2" s="33"/>
-      <c r="HK2" s="33"/>
-      <c r="HL2" s="33"/>
-      <c r="HM2" s="33"/>
-      <c r="HN2" s="33"/>
-      <c r="HO2" s="33"/>
-      <c r="HP2" s="33"/>
-      <c r="HQ2" s="33"/>
-      <c r="HR2" s="33"/>
-      <c r="HS2" s="33"/>
-      <c r="HT2" s="33"/>
-      <c r="HU2" s="33"/>
-      <c r="HV2" s="33"/>
-      <c r="HW2" s="33"/>
-      <c r="HX2" s="33"/>
-      <c r="HY2" s="33"/>
-      <c r="HZ2" s="33"/>
-      <c r="IA2" s="33"/>
-      <c r="IB2" s="33"/>
-      <c r="IC2" s="33"/>
-      <c r="ID2" s="33"/>
-      <c r="IE2" s="33"/>
-      <c r="IF2" s="33"/>
-      <c r="IG2" s="33"/>
-      <c r="IH2" s="33"/>
-      <c r="II2" s="33"/>
-      <c r="IJ2" s="33"/>
-      <c r="IK2" s="33"/>
-      <c r="IL2" s="33"/>
-      <c r="IM2" s="33"/>
-      <c r="IN2" s="33"/>
-      <c r="IO2" s="33"/>
-      <c r="IP2" s="33"/>
-      <c r="IQ2" s="33"/>
-      <c r="IR2" s="33"/>
-      <c r="IS2" s="33"/>
-      <c r="IT2" s="33"/>
-      <c r="IU2" s="33"/>
-      <c r="IV2" s="33"/>
-      <c r="IW2" s="33"/>
-      <c r="IX2" s="33"/>
-      <c r="IY2" s="33"/>
-      <c r="IZ2" s="33"/>
-      <c r="JA2" s="33"/>
-      <c r="JB2" s="33"/>
-      <c r="JC2" s="33"/>
-      <c r="JD2" s="33"/>
-      <c r="JE2" s="33"/>
-      <c r="JF2" s="33"/>
-      <c r="JG2" s="33"/>
-      <c r="JH2" s="33"/>
-      <c r="JI2" s="33"/>
-      <c r="JJ2" s="33"/>
-      <c r="JK2" s="33"/>
-      <c r="JL2" s="33"/>
-      <c r="JM2" s="33"/>
-      <c r="JN2" s="33"/>
-      <c r="JO2" s="33"/>
-      <c r="JP2" s="33"/>
-      <c r="JQ2" s="33"/>
-      <c r="JR2" s="33"/>
-      <c r="JS2" s="33"/>
-      <c r="JT2" s="33"/>
-      <c r="JU2" s="33"/>
-      <c r="JV2" s="33"/>
-      <c r="JW2" s="33"/>
-      <c r="JX2" s="33"/>
-      <c r="JY2" s="33"/>
-      <c r="JZ2" s="33"/>
-      <c r="KA2" s="33"/>
-      <c r="KB2" s="33"/>
-      <c r="KC2" s="33"/>
-      <c r="KD2" s="33"/>
-      <c r="KE2" s="33"/>
-      <c r="KF2" s="33"/>
-      <c r="KG2" s="33"/>
-      <c r="KH2" s="33"/>
-      <c r="KI2" s="33"/>
-      <c r="KJ2" s="33"/>
-      <c r="KK2" s="33"/>
-      <c r="KL2" s="33"/>
-      <c r="KM2" s="33"/>
-      <c r="KN2" s="33"/>
-      <c r="KO2" s="33"/>
-      <c r="KP2" s="33"/>
-      <c r="KQ2" s="33"/>
-      <c r="KR2" s="33"/>
-      <c r="KS2" s="33"/>
-      <c r="KT2" s="33"/>
-      <c r="KU2" s="33"/>
-      <c r="KV2" s="33"/>
-      <c r="KW2" s="33"/>
-      <c r="KX2" s="33"/>
-      <c r="KY2" s="33"/>
-      <c r="KZ2" s="33"/>
-      <c r="LA2" s="33"/>
-      <c r="LB2" s="33"/>
-      <c r="LC2" s="33"/>
-      <c r="LD2" s="33"/>
-      <c r="LE2" s="33"/>
-      <c r="LF2" s="33"/>
-      <c r="LG2" s="33"/>
-      <c r="LH2" s="33"/>
-      <c r="LI2" s="33"/>
-      <c r="LJ2" s="33"/>
-      <c r="LK2" s="33"/>
-      <c r="LL2" s="33"/>
-      <c r="LM2" s="33"/>
-      <c r="LN2" s="33"/>
-      <c r="LO2" s="33"/>
-      <c r="LP2" s="33"/>
-      <c r="LQ2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="34"/>
+      <c r="AW2" s="34"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="34"/>
+      <c r="AZ2" s="34"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="34"/>
+      <c r="BC2" s="34"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="34"/>
+      <c r="BF2" s="34"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="34"/>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="34"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="34"/>
+      <c r="BR2" s="34"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="34"/>
+      <c r="BU2" s="34"/>
+      <c r="BV2" s="34"/>
+      <c r="BW2" s="34"/>
+      <c r="BX2" s="34"/>
+      <c r="BY2" s="34"/>
+      <c r="BZ2" s="34"/>
+      <c r="CA2" s="34"/>
+      <c r="CB2" s="34"/>
+      <c r="CC2" s="34"/>
+      <c r="CD2" s="34"/>
+      <c r="CE2" s="34"/>
+      <c r="CF2" s="34"/>
+      <c r="CG2" s="34"/>
+      <c r="CH2" s="34"/>
+      <c r="CI2" s="34"/>
+      <c r="CJ2" s="34"/>
+      <c r="CK2" s="34"/>
+      <c r="CL2" s="34"/>
+      <c r="CM2" s="34"/>
+      <c r="CN2" s="34"/>
+      <c r="CO2" s="34"/>
+      <c r="CP2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="34"/>
+      <c r="CS2" s="34"/>
+      <c r="CT2" s="34"/>
+      <c r="CU2" s="34"/>
+      <c r="CV2" s="34"/>
+      <c r="CW2" s="34"/>
+      <c r="CX2" s="34"/>
+      <c r="CY2" s="34"/>
+      <c r="CZ2" s="34"/>
+      <c r="DA2" s="34"/>
+      <c r="DB2" s="34"/>
+      <c r="DC2" s="34"/>
+      <c r="DD2" s="34"/>
+      <c r="DE2" s="34"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="34"/>
+      <c r="DH2" s="34"/>
+      <c r="DI2" s="34"/>
+      <c r="DJ2" s="34"/>
+      <c r="DK2" s="34"/>
+      <c r="DL2" s="34"/>
+      <c r="DM2" s="34"/>
+      <c r="DN2" s="34"/>
+      <c r="DO2" s="34"/>
+      <c r="DP2" s="34"/>
+      <c r="DQ2" s="34"/>
+      <c r="DR2" s="34"/>
+      <c r="DS2" s="34"/>
+      <c r="DT2" s="34"/>
+      <c r="DU2" s="34"/>
+      <c r="DV2" s="34"/>
+      <c r="DW2" s="34"/>
+      <c r="DX2" s="34"/>
+      <c r="DY2" s="34"/>
+      <c r="DZ2" s="34"/>
+      <c r="EA2" s="34"/>
+      <c r="EB2" s="34"/>
+      <c r="EC2" s="34"/>
+      <c r="ED2" s="34"/>
+      <c r="EE2" s="34"/>
+      <c r="EF2" s="34"/>
+      <c r="EG2" s="34"/>
+      <c r="EH2" s="34"/>
+      <c r="EI2" s="34"/>
+      <c r="EJ2" s="34"/>
+      <c r="EK2" s="34"/>
+      <c r="EL2" s="34"/>
+      <c r="EM2" s="34"/>
+      <c r="EN2" s="34"/>
+      <c r="EO2" s="34"/>
+      <c r="EP2" s="34"/>
+      <c r="EQ2" s="34"/>
+      <c r="ER2" s="34"/>
+      <c r="ES2" s="34"/>
+      <c r="ET2" s="34"/>
+      <c r="EU2" s="34"/>
+      <c r="EV2" s="34"/>
+      <c r="EW2" s="34"/>
+      <c r="EX2" s="34"/>
+      <c r="EY2" s="34"/>
+      <c r="EZ2" s="34"/>
+      <c r="FA2" s="34"/>
+      <c r="FB2" s="34"/>
+      <c r="FC2" s="34"/>
+      <c r="FD2" s="34"/>
+      <c r="FE2" s="34"/>
+      <c r="FF2" s="34"/>
+      <c r="FG2" s="34"/>
+      <c r="FH2" s="34"/>
+      <c r="FI2" s="34"/>
+      <c r="FJ2" s="34"/>
+      <c r="FK2" s="34"/>
+      <c r="FL2" s="34"/>
+      <c r="FM2" s="34"/>
+      <c r="FN2" s="34"/>
+      <c r="FO2" s="34"/>
+      <c r="FP2" s="34"/>
+      <c r="FQ2" s="34"/>
+      <c r="FR2" s="34"/>
+      <c r="FS2" s="34"/>
+      <c r="FT2" s="34"/>
+      <c r="FU2" s="34"/>
+      <c r="FV2" s="34"/>
+      <c r="FW2" s="34"/>
+      <c r="FX2" s="34"/>
+      <c r="FY2" s="34"/>
+      <c r="FZ2" s="34"/>
+      <c r="GA2" s="34"/>
+      <c r="GB2" s="34"/>
+      <c r="GC2" s="34"/>
+      <c r="GD2" s="34"/>
+      <c r="GE2" s="34"/>
+      <c r="GF2" s="34"/>
+      <c r="GG2" s="34"/>
+      <c r="GH2" s="34"/>
+      <c r="GI2" s="34"/>
+      <c r="GJ2" s="34"/>
+      <c r="GK2" s="34"/>
+      <c r="GL2" s="34"/>
+      <c r="GM2" s="34"/>
+      <c r="GN2" s="34"/>
+      <c r="GO2" s="34"/>
+      <c r="GP2" s="34"/>
+      <c r="GQ2" s="34"/>
+      <c r="GR2" s="34"/>
+      <c r="GS2" s="34"/>
+      <c r="GT2" s="34"/>
+      <c r="GU2" s="34"/>
+      <c r="GV2" s="34"/>
+      <c r="GW2" s="34"/>
+      <c r="GX2" s="34"/>
+      <c r="GY2" s="34"/>
+      <c r="GZ2" s="34"/>
+      <c r="HA2" s="34"/>
+      <c r="HB2" s="34"/>
+      <c r="HC2" s="34"/>
+      <c r="HD2" s="34"/>
+      <c r="HE2" s="34"/>
+      <c r="HF2" s="34"/>
+      <c r="HG2" s="34"/>
+      <c r="HH2" s="34"/>
+      <c r="HI2" s="34"/>
+      <c r="HJ2" s="34"/>
+      <c r="HK2" s="34"/>
+      <c r="HL2" s="34"/>
+      <c r="HM2" s="34"/>
+      <c r="HN2" s="34"/>
+      <c r="HO2" s="34"/>
+      <c r="HP2" s="34"/>
+      <c r="HQ2" s="34"/>
+      <c r="HR2" s="34"/>
+      <c r="HS2" s="34"/>
+      <c r="HT2" s="34"/>
+      <c r="HU2" s="34"/>
+      <c r="HV2" s="34"/>
+      <c r="HW2" s="34"/>
+      <c r="HX2" s="34"/>
+      <c r="HY2" s="34"/>
+      <c r="HZ2" s="34"/>
+      <c r="IA2" s="34"/>
+      <c r="IB2" s="34"/>
+      <c r="IC2" s="34"/>
+      <c r="ID2" s="34"/>
+      <c r="IE2" s="34"/>
+      <c r="IF2" s="34"/>
+      <c r="IG2" s="34"/>
+      <c r="IH2" s="34"/>
+      <c r="II2" s="34"/>
+      <c r="IJ2" s="34"/>
+      <c r="IK2" s="34"/>
+      <c r="IL2" s="34"/>
+      <c r="IM2" s="34"/>
+      <c r="IN2" s="34"/>
+      <c r="IO2" s="34"/>
+      <c r="IP2" s="34"/>
+      <c r="IQ2" s="34"/>
+      <c r="IR2" s="34"/>
+      <c r="IS2" s="34"/>
+      <c r="IT2" s="34"/>
+      <c r="IU2" s="34"/>
+      <c r="IV2" s="34"/>
+      <c r="IW2" s="34"/>
+      <c r="IX2" s="34"/>
+      <c r="IY2" s="34"/>
+      <c r="IZ2" s="34"/>
+      <c r="JA2" s="34"/>
+      <c r="JB2" s="34"/>
+      <c r="JC2" s="34"/>
+      <c r="JD2" s="34"/>
+      <c r="JE2" s="34"/>
+      <c r="JF2" s="34"/>
+      <c r="JG2" s="34"/>
+      <c r="JH2" s="34"/>
+      <c r="JI2" s="34"/>
+      <c r="JJ2" s="34"/>
+      <c r="JK2" s="34"/>
+      <c r="JL2" s="34"/>
+      <c r="JM2" s="34"/>
+      <c r="JN2" s="34"/>
+      <c r="JO2" s="34"/>
+      <c r="JP2" s="34"/>
+      <c r="JQ2" s="34"/>
+      <c r="JR2" s="34"/>
+      <c r="JS2" s="34"/>
+      <c r="JT2" s="34"/>
+      <c r="JU2" s="34"/>
+      <c r="JV2" s="34"/>
+      <c r="JW2" s="34"/>
+      <c r="JX2" s="34"/>
+      <c r="JY2" s="34"/>
+      <c r="JZ2" s="34"/>
+      <c r="KA2" s="34"/>
+      <c r="KB2" s="34"/>
+      <c r="KC2" s="34"/>
+      <c r="KD2" s="34"/>
+      <c r="KE2" s="34"/>
+      <c r="KF2" s="34"/>
+      <c r="KG2" s="34"/>
+      <c r="KH2" s="34"/>
+      <c r="KI2" s="34"/>
+      <c r="KJ2" s="34"/>
+      <c r="KK2" s="34"/>
+      <c r="KL2" s="34"/>
+      <c r="KM2" s="34"/>
+      <c r="KN2" s="34"/>
+      <c r="KO2" s="34"/>
+      <c r="KP2" s="34"/>
+      <c r="KQ2" s="34"/>
+      <c r="KR2" s="34"/>
+      <c r="KS2" s="34"/>
+      <c r="KT2" s="34"/>
+      <c r="KU2" s="34"/>
+      <c r="KV2" s="34"/>
+      <c r="KW2" s="34"/>
+      <c r="KX2" s="34"/>
+      <c r="KY2" s="34"/>
+      <c r="KZ2" s="34"/>
+      <c r="LA2" s="34"/>
+      <c r="LB2" s="34"/>
+      <c r="LC2" s="34"/>
+      <c r="LD2" s="34"/>
+      <c r="LE2" s="34"/>
+      <c r="LF2" s="34"/>
+      <c r="LG2" s="34"/>
+      <c r="LH2" s="34"/>
+      <c r="LI2" s="34"/>
+      <c r="LJ2" s="34"/>
+      <c r="LK2" s="34"/>
+      <c r="LL2" s="34"/>
+      <c r="LM2" s="34"/>
+      <c r="LN2" s="34"/>
+      <c r="LO2" s="34"/>
+      <c r="LP2" s="34"/>
+      <c r="LQ2" s="35"/>
     </row>
     <row r="3" spans="2:329" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="32" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="33"/>
-      <c r="AU3" s="33"/>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="33"/>
-      <c r="AX3" s="33"/>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="33"/>
-      <c r="BA3" s="33"/>
-      <c r="BB3" s="34"/>
-      <c r="BC3" s="32" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="33"/>
-      <c r="BE3" s="33"/>
-      <c r="BF3" s="33"/>
-      <c r="BG3" s="33"/>
-      <c r="BH3" s="33"/>
-      <c r="BI3" s="33"/>
-      <c r="BJ3" s="33"/>
-      <c r="BK3" s="33"/>
-      <c r="BL3" s="33"/>
-      <c r="BM3" s="33"/>
-      <c r="BN3" s="33"/>
-      <c r="BO3" s="33"/>
-      <c r="BP3" s="33"/>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="33"/>
-      <c r="BS3" s="33"/>
-      <c r="BT3" s="33"/>
-      <c r="BU3" s="33"/>
-      <c r="BV3" s="33"/>
-      <c r="BW3" s="33"/>
-      <c r="BX3" s="33"/>
-      <c r="BY3" s="33"/>
-      <c r="BZ3" s="33"/>
-      <c r="CA3" s="33"/>
-      <c r="CB3" s="33"/>
-      <c r="CC3" s="33"/>
-      <c r="CD3" s="33"/>
-      <c r="CE3" s="33"/>
-      <c r="CF3" s="33"/>
-      <c r="CG3" s="33"/>
-      <c r="CH3" s="33"/>
-      <c r="CI3" s="33"/>
-      <c r="CJ3" s="33"/>
-      <c r="CK3" s="33"/>
-      <c r="CL3" s="33"/>
-      <c r="CM3" s="33"/>
-      <c r="CN3" s="33"/>
-      <c r="CO3" s="33"/>
-      <c r="CP3" s="33"/>
-      <c r="CQ3" s="33"/>
-      <c r="CR3" s="33"/>
-      <c r="CS3" s="33"/>
-      <c r="CT3" s="33"/>
-      <c r="CU3" s="33"/>
-      <c r="CV3" s="33"/>
-      <c r="CW3" s="33"/>
-      <c r="CX3" s="33"/>
-      <c r="CY3" s="33"/>
-      <c r="CZ3" s="33"/>
-      <c r="DA3" s="33"/>
-      <c r="DB3" s="33"/>
-      <c r="DC3" s="33"/>
-      <c r="DD3" s="33"/>
-      <c r="DE3" s="33"/>
-      <c r="DF3" s="33"/>
-      <c r="DG3" s="33"/>
-      <c r="DH3" s="33"/>
-      <c r="DI3" s="33"/>
-      <c r="DJ3" s="33"/>
-      <c r="DK3" s="33"/>
-      <c r="DL3" s="33"/>
-      <c r="DM3" s="33"/>
-      <c r="DN3" s="33"/>
-      <c r="DO3" s="33"/>
-      <c r="DP3" s="33"/>
-      <c r="DQ3" s="33"/>
-      <c r="DR3" s="33"/>
-      <c r="DS3" s="33"/>
-      <c r="DT3" s="33"/>
-      <c r="DU3" s="33"/>
-      <c r="DV3" s="33"/>
-      <c r="DW3" s="33"/>
-      <c r="DX3" s="33"/>
-      <c r="DY3" s="33"/>
-      <c r="DZ3" s="33"/>
-      <c r="EA3" s="33"/>
-      <c r="EB3" s="33"/>
-      <c r="EC3" s="33"/>
-      <c r="ED3" s="33"/>
-      <c r="EE3" s="33"/>
-      <c r="EF3" s="33"/>
-      <c r="EG3" s="33"/>
-      <c r="EH3" s="33"/>
-      <c r="EI3" s="33"/>
-      <c r="EJ3" s="33"/>
-      <c r="EK3" s="33"/>
-      <c r="EL3" s="33"/>
-      <c r="EM3" s="33"/>
-      <c r="EN3" s="33"/>
-      <c r="EO3" s="34"/>
-      <c r="EP3" s="32" t="s">
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="34"/>
+      <c r="BL3" s="34"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="34"/>
+      <c r="BO3" s="34"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="34"/>
+      <c r="BR3" s="34"/>
+      <c r="BS3" s="34"/>
+      <c r="BT3" s="34"/>
+      <c r="BU3" s="34"/>
+      <c r="BV3" s="34"/>
+      <c r="BW3" s="34"/>
+      <c r="BX3" s="34"/>
+      <c r="BY3" s="34"/>
+      <c r="BZ3" s="34"/>
+      <c r="CA3" s="34"/>
+      <c r="CB3" s="34"/>
+      <c r="CC3" s="34"/>
+      <c r="CD3" s="34"/>
+      <c r="CE3" s="34"/>
+      <c r="CF3" s="34"/>
+      <c r="CG3" s="34"/>
+      <c r="CH3" s="34"/>
+      <c r="CI3" s="34"/>
+      <c r="CJ3" s="34"/>
+      <c r="CK3" s="34"/>
+      <c r="CL3" s="34"/>
+      <c r="CM3" s="34"/>
+      <c r="CN3" s="34"/>
+      <c r="CO3" s="34"/>
+      <c r="CP3" s="34"/>
+      <c r="CQ3" s="34"/>
+      <c r="CR3" s="34"/>
+      <c r="CS3" s="34"/>
+      <c r="CT3" s="34"/>
+      <c r="CU3" s="34"/>
+      <c r="CV3" s="34"/>
+      <c r="CW3" s="34"/>
+      <c r="CX3" s="34"/>
+      <c r="CY3" s="34"/>
+      <c r="CZ3" s="34"/>
+      <c r="DA3" s="34"/>
+      <c r="DB3" s="34"/>
+      <c r="DC3" s="34"/>
+      <c r="DD3" s="34"/>
+      <c r="DE3" s="34"/>
+      <c r="DF3" s="34"/>
+      <c r="DG3" s="34"/>
+      <c r="DH3" s="34"/>
+      <c r="DI3" s="34"/>
+      <c r="DJ3" s="34"/>
+      <c r="DK3" s="34"/>
+      <c r="DL3" s="34"/>
+      <c r="DM3" s="34"/>
+      <c r="DN3" s="34"/>
+      <c r="DO3" s="34"/>
+      <c r="DP3" s="34"/>
+      <c r="DQ3" s="34"/>
+      <c r="DR3" s="34"/>
+      <c r="DS3" s="34"/>
+      <c r="DT3" s="34"/>
+      <c r="DU3" s="34"/>
+      <c r="DV3" s="34"/>
+      <c r="DW3" s="34"/>
+      <c r="DX3" s="34"/>
+      <c r="DY3" s="34"/>
+      <c r="DZ3" s="34"/>
+      <c r="EA3" s="34"/>
+      <c r="EB3" s="34"/>
+      <c r="EC3" s="34"/>
+      <c r="ED3" s="34"/>
+      <c r="EE3" s="34"/>
+      <c r="EF3" s="34"/>
+      <c r="EG3" s="34"/>
+      <c r="EH3" s="34"/>
+      <c r="EI3" s="34"/>
+      <c r="EJ3" s="34"/>
+      <c r="EK3" s="34"/>
+      <c r="EL3" s="34"/>
+      <c r="EM3" s="34"/>
+      <c r="EN3" s="34"/>
+      <c r="EO3" s="35"/>
+      <c r="EP3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="EQ3" s="33"/>
-      <c r="ER3" s="33"/>
-      <c r="ES3" s="33"/>
-      <c r="ET3" s="33"/>
-      <c r="EU3" s="33"/>
-      <c r="EV3" s="33"/>
-      <c r="EW3" s="33"/>
-      <c r="EX3" s="33"/>
-      <c r="EY3" s="33"/>
-      <c r="EZ3" s="33"/>
-      <c r="FA3" s="33"/>
-      <c r="FB3" s="33"/>
-      <c r="FC3" s="33"/>
-      <c r="FD3" s="33"/>
-      <c r="FE3" s="33"/>
-      <c r="FF3" s="33"/>
-      <c r="FG3" s="33"/>
-      <c r="FH3" s="33"/>
-      <c r="FI3" s="33"/>
-      <c r="FJ3" s="33"/>
-      <c r="FK3" s="33"/>
-      <c r="FL3" s="33"/>
-      <c r="FM3" s="33"/>
-      <c r="FN3" s="33"/>
-      <c r="FO3" s="33"/>
-      <c r="FP3" s="33"/>
-      <c r="FQ3" s="33"/>
-      <c r="FR3" s="33"/>
-      <c r="FS3" s="33"/>
-      <c r="FT3" s="33"/>
-      <c r="FU3" s="33"/>
-      <c r="FV3" s="33"/>
-      <c r="FW3" s="33"/>
-      <c r="FX3" s="33"/>
-      <c r="FY3" s="33"/>
-      <c r="FZ3" s="33"/>
-      <c r="GA3" s="33"/>
-      <c r="GB3" s="33"/>
-      <c r="GC3" s="33"/>
-      <c r="GD3" s="33"/>
-      <c r="GE3" s="33"/>
-      <c r="GF3" s="33"/>
-      <c r="GG3" s="33"/>
-      <c r="GH3" s="33"/>
-      <c r="GI3" s="33"/>
-      <c r="GJ3" s="33"/>
-      <c r="GK3" s="33"/>
-      <c r="GL3" s="33"/>
-      <c r="GM3" s="33"/>
-      <c r="GN3" s="33"/>
-      <c r="GO3" s="33"/>
-      <c r="GP3" s="33"/>
-      <c r="GQ3" s="33"/>
-      <c r="GR3" s="33"/>
-      <c r="GS3" s="33"/>
-      <c r="GT3" s="33"/>
-      <c r="GU3" s="33"/>
-      <c r="GV3" s="33"/>
-      <c r="GW3" s="33"/>
-      <c r="GX3" s="33"/>
-      <c r="GY3" s="33"/>
-      <c r="GZ3" s="33"/>
-      <c r="HA3" s="33"/>
-      <c r="HB3" s="33"/>
-      <c r="HC3" s="33"/>
-      <c r="HD3" s="33"/>
-      <c r="HE3" s="33"/>
-      <c r="HF3" s="33"/>
-      <c r="HG3" s="33"/>
-      <c r="HH3" s="33"/>
-      <c r="HI3" s="33"/>
-      <c r="HJ3" s="33"/>
-      <c r="HK3" s="33"/>
-      <c r="HL3" s="33"/>
-      <c r="HM3" s="33"/>
-      <c r="HN3" s="33"/>
-      <c r="HO3" s="33"/>
-      <c r="HP3" s="33"/>
-      <c r="HQ3" s="33"/>
-      <c r="HR3" s="33"/>
-      <c r="HS3" s="33"/>
-      <c r="HT3" s="33"/>
-      <c r="HU3" s="33"/>
-      <c r="HV3" s="33"/>
-      <c r="HW3" s="33"/>
-      <c r="HX3" s="33"/>
-      <c r="HY3" s="33"/>
-      <c r="HZ3" s="33"/>
-      <c r="IA3" s="33"/>
-      <c r="IB3" s="33"/>
-      <c r="IC3" s="34"/>
-      <c r="ID3" s="32" t="s">
+      <c r="EQ3" s="34"/>
+      <c r="ER3" s="34"/>
+      <c r="ES3" s="34"/>
+      <c r="ET3" s="34"/>
+      <c r="EU3" s="34"/>
+      <c r="EV3" s="34"/>
+      <c r="EW3" s="34"/>
+      <c r="EX3" s="34"/>
+      <c r="EY3" s="34"/>
+      <c r="EZ3" s="34"/>
+      <c r="FA3" s="34"/>
+      <c r="FB3" s="34"/>
+      <c r="FC3" s="34"/>
+      <c r="FD3" s="34"/>
+      <c r="FE3" s="34"/>
+      <c r="FF3" s="34"/>
+      <c r="FG3" s="34"/>
+      <c r="FH3" s="34"/>
+      <c r="FI3" s="34"/>
+      <c r="FJ3" s="34"/>
+      <c r="FK3" s="34"/>
+      <c r="FL3" s="34"/>
+      <c r="FM3" s="34"/>
+      <c r="FN3" s="34"/>
+      <c r="FO3" s="34"/>
+      <c r="FP3" s="34"/>
+      <c r="FQ3" s="34"/>
+      <c r="FR3" s="34"/>
+      <c r="FS3" s="34"/>
+      <c r="FT3" s="34"/>
+      <c r="FU3" s="34"/>
+      <c r="FV3" s="34"/>
+      <c r="FW3" s="34"/>
+      <c r="FX3" s="34"/>
+      <c r="FY3" s="34"/>
+      <c r="FZ3" s="34"/>
+      <c r="GA3" s="34"/>
+      <c r="GB3" s="34"/>
+      <c r="GC3" s="34"/>
+      <c r="GD3" s="34"/>
+      <c r="GE3" s="34"/>
+      <c r="GF3" s="34"/>
+      <c r="GG3" s="34"/>
+      <c r="GH3" s="34"/>
+      <c r="GI3" s="34"/>
+      <c r="GJ3" s="34"/>
+      <c r="GK3" s="34"/>
+      <c r="GL3" s="34"/>
+      <c r="GM3" s="34"/>
+      <c r="GN3" s="34"/>
+      <c r="GO3" s="34"/>
+      <c r="GP3" s="34"/>
+      <c r="GQ3" s="34"/>
+      <c r="GR3" s="34"/>
+      <c r="GS3" s="34"/>
+      <c r="GT3" s="34"/>
+      <c r="GU3" s="34"/>
+      <c r="GV3" s="34"/>
+      <c r="GW3" s="34"/>
+      <c r="GX3" s="34"/>
+      <c r="GY3" s="34"/>
+      <c r="GZ3" s="34"/>
+      <c r="HA3" s="34"/>
+      <c r="HB3" s="34"/>
+      <c r="HC3" s="34"/>
+      <c r="HD3" s="34"/>
+      <c r="HE3" s="34"/>
+      <c r="HF3" s="34"/>
+      <c r="HG3" s="34"/>
+      <c r="HH3" s="34"/>
+      <c r="HI3" s="34"/>
+      <c r="HJ3" s="34"/>
+      <c r="HK3" s="34"/>
+      <c r="HL3" s="34"/>
+      <c r="HM3" s="34"/>
+      <c r="HN3" s="34"/>
+      <c r="HO3" s="34"/>
+      <c r="HP3" s="34"/>
+      <c r="HQ3" s="34"/>
+      <c r="HR3" s="34"/>
+      <c r="HS3" s="34"/>
+      <c r="HT3" s="34"/>
+      <c r="HU3" s="34"/>
+      <c r="HV3" s="34"/>
+      <c r="HW3" s="34"/>
+      <c r="HX3" s="34"/>
+      <c r="HY3" s="34"/>
+      <c r="HZ3" s="34"/>
+      <c r="IA3" s="34"/>
+      <c r="IB3" s="34"/>
+      <c r="IC3" s="35"/>
+      <c r="ID3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="IE3" s="33"/>
-      <c r="IF3" s="33"/>
-      <c r="IG3" s="33"/>
-      <c r="IH3" s="33"/>
-      <c r="II3" s="33"/>
-      <c r="IJ3" s="33"/>
-      <c r="IK3" s="33"/>
-      <c r="IL3" s="33"/>
-      <c r="IM3" s="33"/>
-      <c r="IN3" s="33"/>
-      <c r="IO3" s="33"/>
-      <c r="IP3" s="33"/>
-      <c r="IQ3" s="33"/>
-      <c r="IR3" s="33"/>
-      <c r="IS3" s="33"/>
-      <c r="IT3" s="33"/>
-      <c r="IU3" s="33"/>
-      <c r="IV3" s="33"/>
-      <c r="IW3" s="33"/>
-      <c r="IX3" s="33"/>
-      <c r="IY3" s="33"/>
-      <c r="IZ3" s="33"/>
-      <c r="JA3" s="33"/>
-      <c r="JB3" s="33"/>
-      <c r="JC3" s="33"/>
-      <c r="JD3" s="33"/>
-      <c r="JE3" s="33"/>
-      <c r="JF3" s="33"/>
-      <c r="JG3" s="33"/>
-      <c r="JH3" s="33"/>
-      <c r="JI3" s="33"/>
-      <c r="JJ3" s="33"/>
-      <c r="JK3" s="33"/>
-      <c r="JL3" s="33"/>
-      <c r="JM3" s="33"/>
-      <c r="JN3" s="33"/>
-      <c r="JO3" s="33"/>
-      <c r="JP3" s="33"/>
-      <c r="JQ3" s="33"/>
-      <c r="JR3" s="33"/>
-      <c r="JS3" s="33"/>
-      <c r="JT3" s="33"/>
-      <c r="JU3" s="33"/>
-      <c r="JV3" s="33"/>
-      <c r="JW3" s="33"/>
-      <c r="JX3" s="33"/>
-      <c r="JY3" s="33"/>
-      <c r="JZ3" s="33"/>
-      <c r="KA3" s="33"/>
-      <c r="KB3" s="33"/>
-      <c r="KC3" s="33"/>
-      <c r="KD3" s="33"/>
-      <c r="KE3" s="33"/>
-      <c r="KF3" s="33"/>
-      <c r="KG3" s="33"/>
-      <c r="KH3" s="33"/>
-      <c r="KI3" s="33"/>
-      <c r="KJ3" s="33"/>
-      <c r="KK3" s="33"/>
-      <c r="KL3" s="33"/>
-      <c r="KM3" s="33"/>
-      <c r="KN3" s="33"/>
-      <c r="KO3" s="33"/>
-      <c r="KP3" s="33"/>
-      <c r="KQ3" s="33"/>
-      <c r="KR3" s="33"/>
-      <c r="KS3" s="33"/>
-      <c r="KT3" s="33"/>
-      <c r="KU3" s="33"/>
-      <c r="KV3" s="33"/>
-      <c r="KW3" s="33"/>
-      <c r="KX3" s="33"/>
-      <c r="KY3" s="33"/>
-      <c r="KZ3" s="33"/>
-      <c r="LA3" s="33"/>
-      <c r="LB3" s="33"/>
-      <c r="LC3" s="33"/>
-      <c r="LD3" s="33"/>
-      <c r="LE3" s="33"/>
-      <c r="LF3" s="33"/>
-      <c r="LG3" s="33"/>
-      <c r="LH3" s="33"/>
-      <c r="LI3" s="33"/>
-      <c r="LJ3" s="33"/>
-      <c r="LK3" s="33"/>
-      <c r="LL3" s="33"/>
-      <c r="LM3" s="33"/>
-      <c r="LN3" s="33"/>
-      <c r="LO3" s="33"/>
-      <c r="LP3" s="33"/>
-      <c r="LQ3" s="34"/>
+      <c r="IE3" s="34"/>
+      <c r="IF3" s="34"/>
+      <c r="IG3" s="34"/>
+      <c r="IH3" s="34"/>
+      <c r="II3" s="34"/>
+      <c r="IJ3" s="34"/>
+      <c r="IK3" s="34"/>
+      <c r="IL3" s="34"/>
+      <c r="IM3" s="34"/>
+      <c r="IN3" s="34"/>
+      <c r="IO3" s="34"/>
+      <c r="IP3" s="34"/>
+      <c r="IQ3" s="34"/>
+      <c r="IR3" s="34"/>
+      <c r="IS3" s="34"/>
+      <c r="IT3" s="34"/>
+      <c r="IU3" s="34"/>
+      <c r="IV3" s="34"/>
+      <c r="IW3" s="34"/>
+      <c r="IX3" s="34"/>
+      <c r="IY3" s="34"/>
+      <c r="IZ3" s="34"/>
+      <c r="JA3" s="34"/>
+      <c r="JB3" s="34"/>
+      <c r="JC3" s="34"/>
+      <c r="JD3" s="34"/>
+      <c r="JE3" s="34"/>
+      <c r="JF3" s="34"/>
+      <c r="JG3" s="34"/>
+      <c r="JH3" s="34"/>
+      <c r="JI3" s="34"/>
+      <c r="JJ3" s="34"/>
+      <c r="JK3" s="34"/>
+      <c r="JL3" s="34"/>
+      <c r="JM3" s="34"/>
+      <c r="JN3" s="34"/>
+      <c r="JO3" s="34"/>
+      <c r="JP3" s="34"/>
+      <c r="JQ3" s="34"/>
+      <c r="JR3" s="34"/>
+      <c r="JS3" s="34"/>
+      <c r="JT3" s="34"/>
+      <c r="JU3" s="34"/>
+      <c r="JV3" s="34"/>
+      <c r="JW3" s="34"/>
+      <c r="JX3" s="34"/>
+      <c r="JY3" s="34"/>
+      <c r="JZ3" s="34"/>
+      <c r="KA3" s="34"/>
+      <c r="KB3" s="34"/>
+      <c r="KC3" s="34"/>
+      <c r="KD3" s="34"/>
+      <c r="KE3" s="34"/>
+      <c r="KF3" s="34"/>
+      <c r="KG3" s="34"/>
+      <c r="KH3" s="34"/>
+      <c r="KI3" s="34"/>
+      <c r="KJ3" s="34"/>
+      <c r="KK3" s="34"/>
+      <c r="KL3" s="34"/>
+      <c r="KM3" s="34"/>
+      <c r="KN3" s="34"/>
+      <c r="KO3" s="34"/>
+      <c r="KP3" s="34"/>
+      <c r="KQ3" s="34"/>
+      <c r="KR3" s="34"/>
+      <c r="KS3" s="34"/>
+      <c r="KT3" s="34"/>
+      <c r="KU3" s="34"/>
+      <c r="KV3" s="34"/>
+      <c r="KW3" s="34"/>
+      <c r="KX3" s="34"/>
+      <c r="KY3" s="34"/>
+      <c r="KZ3" s="34"/>
+      <c r="LA3" s="34"/>
+      <c r="LB3" s="34"/>
+      <c r="LC3" s="34"/>
+      <c r="LD3" s="34"/>
+      <c r="LE3" s="34"/>
+      <c r="LF3" s="34"/>
+      <c r="LG3" s="34"/>
+      <c r="LH3" s="34"/>
+      <c r="LI3" s="34"/>
+      <c r="LJ3" s="34"/>
+      <c r="LK3" s="34"/>
+      <c r="LL3" s="34"/>
+      <c r="LM3" s="34"/>
+      <c r="LN3" s="34"/>
+      <c r="LO3" s="34"/>
+      <c r="LP3" s="34"/>
+      <c r="LQ3" s="35"/>
     </row>
     <row r="4" spans="2:329" s="9" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="8">
         <v>44966</v>
       </c>
@@ -2708,21 +2706,21 @@
       </c>
     </row>
     <row r="5" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="46" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -3042,7 +3040,7 @@
       <c r="LQ5" s="4"/>
     </row>
     <row r="6" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3054,14 +3052,14 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -3374,7 +3372,7 @@
       <c r="LQ6" s="4"/>
     </row>
     <row r="7" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3389,11 +3387,11 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -3705,8 +3703,8 @@
       <c r="LP7" s="3"/>
       <c r="LQ7" s="4"/>
     </row>
-    <row r="8" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:329" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3720,11 +3718,11 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -4039,8 +4037,8 @@
       <c r="LP8" s="3"/>
       <c r="LQ8" s="4"/>
     </row>
-    <row r="9" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+    <row r="9" spans="2:329" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4371,8 +4369,8 @@
       <c r="LP9" s="3"/>
       <c r="LQ9" s="4"/>
     </row>
-    <row r="10" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
+    <row r="10" spans="2:329" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45"/>
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
@@ -4387,11 +4385,11 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -4703,8 +4701,8 @@
       <c r="LP10" s="3"/>
       <c r="LQ10" s="4"/>
     </row>
-    <row r="11" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
+    <row r="11" spans="2:329" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="45"/>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +5034,7 @@
       <c r="LQ11" s="4"/>
     </row>
     <row r="12" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="45" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -5047,9 +5045,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -5370,7 +5368,7 @@
       <c r="LQ12" s="4"/>
     </row>
     <row r="13" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5387,16 +5385,16 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="20"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="39"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -5702,7 +5700,7 @@
       <c r="LQ13" s="4"/>
     </row>
     <row r="14" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
@@ -5719,16 +5717,16 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="23"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="42"/>
       <c r="AA14" s="16"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
@@ -6034,7 +6032,7 @@
       <c r="LQ14" s="4"/>
     </row>
     <row r="15" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6043,17 +6041,17 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -6366,7 +6364,7 @@
       <c r="LQ15" s="4"/>
     </row>
     <row r="16" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="1" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +6696,7 @@
       <c r="LQ16" s="4"/>
     </row>
     <row r="17" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="10"/>
@@ -6707,9 +6705,9 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
@@ -7030,24 +7028,24 @@
       <c r="LQ17" s="4"/>
     </row>
     <row r="18" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
       <c r="T18" s="12"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -7360,24 +7358,24 @@
       <c r="LQ18" s="4"/>
     </row>
     <row r="19" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
       <c r="T19" s="12"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -7690,24 +7688,24 @@
       <c r="LQ19" s="4"/>
     </row>
     <row r="20" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
       <c r="T20" s="12"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -8020,7 +8018,7 @@
       <c r="LQ20" s="4"/>
     </row>
     <row r="21" spans="2:329" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
@@ -8351,16 +8349,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:S18"/>
-    <mergeCell ref="I19:S19"/>
-    <mergeCell ref="I20:S20"/>
-    <mergeCell ref="BC3:EO3"/>
-    <mergeCell ref="EP3:IC3"/>
-    <mergeCell ref="ID3:LQ3"/>
-    <mergeCell ref="D2:LQ2"/>
-    <mergeCell ref="L6:S6"/>
     <mergeCell ref="Q13:Z13"/>
     <mergeCell ref="Q14:Z14"/>
     <mergeCell ref="B2:C4"/>
@@ -8374,6 +8362,16 @@
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="I15:S15"/>
+    <mergeCell ref="BC3:EO3"/>
+    <mergeCell ref="EP3:IC3"/>
+    <mergeCell ref="ID3:LQ3"/>
+    <mergeCell ref="D2:LQ2"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:S18"/>
+    <mergeCell ref="I19:S19"/>
+    <mergeCell ref="I20:S20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8386,7 +8384,7 @@
   <dimension ref="C3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8398,12 +8396,12 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="17" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8417,150 +8415,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439071ED-7EFD-4A20-95E7-A5A8B6D3F23F}">
   <dimension ref="C3:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="3.77734375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.109375" style="52" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" style="57" customWidth="1"/>
-    <col min="9" max="9" width="15.77734375" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="52"/>
+    <col min="1" max="2" width="3.77734375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="3:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="138" x14ac:dyDescent="0.25">
-      <c r="C4" s="49">
+      <c r="C4" s="21">
         <v>1</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="49">
+      <c r="C5" s="21">
         <v>2</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="53"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="49">
+      <c r="C6" s="21">
         <v>3</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="53"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="49">
+      <c r="C7" s="21">
         <v>4</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="53"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="49"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="49"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="53"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="49"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="53"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="49"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="53"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
